--- a/ps3游戏列表.xlsx
+++ b/ps3游戏列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="751">
   <si>
     <t>游戏类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2685,23 +2685,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>游戏网址A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏网址B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DLC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏网址A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏网址B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>英</t>
+    <t>动作类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2709,7 +2725,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>动作类</t>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡礁秘辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解谜类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要外设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头（必须）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间危机、时间危机4、海盗射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能读镜像：the disc has been ejected.please reinsert the disc；需要选bd，external</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2825,11 +2885,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3127,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD210"/>
+  <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3140,10 +3200,10 @@
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>415</v>
       </c>
@@ -3171,67 +3231,70 @@
       <c r="I1" t="s">
         <v>427</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" t="s">
+        <v>728</v>
+      </c>
+      <c r="K1" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" t="s">
-        <v>728</v>
-      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
       <c r="N1" t="s">
+        <v>735</v>
+      </c>
+      <c r="O1" t="s">
+        <v>745</v>
+      </c>
+      <c r="P1" t="s">
         <v>442</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>421</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>423</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>425</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>428</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>429</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>430</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>431</v>
+      </c>
+      <c r="X1" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD1" t="s">
         <v>729</v>
       </c>
-      <c r="V1" t="s">
-        <v>431</v>
-      </c>
-      <c r="W1" t="s">
-        <v>432</v>
-      </c>
-      <c r="X1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>435</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>730</v>
       </c>
-      <c r="AD1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>418</v>
       </c>
@@ -3245,10 +3308,10 @@
         <v>207</v>
       </c>
       <c r="E2" t="s">
+        <v>731</v>
+      </c>
+      <c r="F2" t="s">
         <v>732</v>
-      </c>
-      <c r="F2" t="s">
-        <v>733</v>
       </c>
       <c r="G2" t="s">
         <v>426</v>
@@ -3260,40 +3323,40 @@
         <v>3.08</v>
       </c>
       <c r="J2" t="s">
+        <v>733</v>
+      </c>
+      <c r="K2" t="s">
         <v>441</v>
       </c>
-      <c r="M2" t="s">
-        <v>734</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>437</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>422</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>424</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="S2" s="1">
         <v>40312</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>9014</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>30</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>7.5</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -3301,13 +3364,13 @@
         <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3315,44 +3378,89 @@
       <c r="I3">
         <v>11.81</v>
       </c>
-      <c r="M3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="J3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>209</v>
       </c>
+      <c r="E4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F4" t="s">
+        <v>736</v>
+      </c>
+      <c r="G4" t="s">
+        <v>737</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>3.54</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="J4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>210</v>
       </c>
+      <c r="E5" t="s">
+        <v>739</v>
+      </c>
+      <c r="F5" t="s">
+        <v>739</v>
+      </c>
+      <c r="G5" t="s">
+        <v>737</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
       <c r="I5">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="J5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>211</v>
       </c>
+      <c r="E6" t="s">
+        <v>740</v>
+      </c>
+      <c r="F6" t="s">
+        <v>740</v>
+      </c>
+      <c r="G6" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>18.11</v>
       </c>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="J6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -3362,151 +3470,361 @@
       <c r="I7">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="O7" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" t="s">
+        <v>742</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>213</v>
       </c>
+      <c r="E8" t="s">
+        <v>736</v>
+      </c>
+      <c r="F8" t="s">
+        <v>739</v>
+      </c>
+      <c r="G8" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
       <c r="I8">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="J8" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>214</v>
       </c>
+      <c r="E9" t="s">
+        <v>736</v>
+      </c>
+      <c r="F9" t="s">
+        <v>736</v>
+      </c>
+      <c r="G9" t="s">
+        <v>741</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
       <c r="I9">
         <v>4.38</v>
       </c>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="J9" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>215</v>
       </c>
+      <c r="E10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F10" t="s">
+        <v>736</v>
+      </c>
+      <c r="G10" t="s">
+        <v>743</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
       <c r="I10">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="J10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>216</v>
       </c>
+      <c r="E11" t="s">
+        <v>736</v>
+      </c>
+      <c r="F11" t="s">
+        <v>736</v>
+      </c>
+      <c r="G11" t="s">
+        <v>737</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
       <c r="I11">
         <v>6.57</v>
       </c>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="J11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>217</v>
       </c>
+      <c r="E12" t="s">
+        <v>736</v>
+      </c>
+      <c r="F12" t="s">
+        <v>736</v>
+      </c>
+      <c r="G12" t="s">
+        <v>744</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
       <c r="I12">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="J12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
         <v>218</v>
       </c>
+      <c r="E13" t="s">
+        <v>736</v>
+      </c>
+      <c r="F13" t="s">
+        <v>736</v>
+      </c>
+      <c r="G13" t="s">
+        <v>741</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
       <c r="I13">
         <v>6.35</v>
       </c>
-    </row>
-    <row r="14" spans="1:30">
+      <c r="J13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
         <v>219</v>
       </c>
+      <c r="E14" t="s">
+        <v>736</v>
+      </c>
+      <c r="F14" t="s">
+        <v>736</v>
+      </c>
+      <c r="G14" t="s">
+        <v>737</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
       <c r="I14">
         <v>10.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="J14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>748</v>
+      </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>220</v>
       </c>
+      <c r="E15" t="s">
+        <v>740</v>
+      </c>
+      <c r="F15" t="s">
+        <v>740</v>
+      </c>
+      <c r="G15" t="s">
+        <v>741</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
       <c r="I15">
         <v>16.309999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="J15" t="s">
+        <v>740</v>
+      </c>
+      <c r="O15" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>221</v>
       </c>
+      <c r="E16" t="s">
+        <v>736</v>
+      </c>
+      <c r="F16" t="s">
+        <v>736</v>
+      </c>
+      <c r="G16" t="s">
+        <v>741</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
       <c r="I16">
         <v>6.68</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="J16" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>222</v>
       </c>
+      <c r="E17" t="s">
+        <v>736</v>
+      </c>
+      <c r="F17" t="s">
+        <v>736</v>
+      </c>
+      <c r="G17" t="s">
+        <v>741</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
       <c r="I17">
         <v>7.66</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
         <v>223</v>
       </c>
+      <c r="E18" t="s">
+        <v>740</v>
+      </c>
+      <c r="F18" t="s">
+        <v>739</v>
+      </c>
+      <c r="G18" t="s">
+        <v>744</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
       <c r="I18">
         <v>5.36</v>
       </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="J18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>224</v>
       </c>
+      <c r="E19" t="s">
+        <v>736</v>
+      </c>
+      <c r="F19" t="s">
+        <v>736</v>
+      </c>
+      <c r="G19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
       <c r="I19">
         <v>12.79</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="J19" t="s">
+        <v>736</v>
+      </c>
+      <c r="O19" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
         <v>225</v>
       </c>
+      <c r="E20" t="s">
+        <v>736</v>
+      </c>
+      <c r="F20" t="s">
+        <v>736</v>
+      </c>
+      <c r="G20" t="s">
+        <v>741</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
       <c r="I20">
         <v>4.6399999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="J20" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -3517,7 +3835,7 @@
         <v>3.49</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:15">
       <c r="B22" t="s">
         <v>21</v>
       </c>
@@ -3528,7 +3846,7 @@
         <v>13.61</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:15">
       <c r="B23" t="s">
         <v>22</v>
       </c>
@@ -3539,7 +3857,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:15">
       <c r="B24" t="s">
         <v>23</v>
       </c>
@@ -3550,7 +3868,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:15">
       <c r="B25" t="s">
         <v>24</v>
       </c>
@@ -3561,7 +3879,7 @@
         <v>11.71</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:15">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -3572,7 +3890,7 @@
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:15">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -3583,7 +3901,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:15">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -3594,7 +3912,7 @@
         <v>5.56</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:15">
       <c r="B29" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3923,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:15">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -3616,7 +3934,7 @@
         <v>5.71</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:15">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3627,7 +3945,7 @@
         <v>5.51</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:15">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -5574,7 +5892,7 @@
         <v>21.49</v>
       </c>
     </row>
-    <row r="209" spans="2:16">
+    <row r="209" spans="2:18">
       <c r="B209" t="s">
         <v>204</v>
       </c>
@@ -5585,7 +5903,7 @@
         <v>11.95</v>
       </c>
     </row>
-    <row r="210" spans="2:16">
+    <row r="210" spans="2:18">
       <c r="B210" t="s">
         <v>205</v>
       </c>
@@ -5595,13 +5913,13 @@
       <c r="I210">
         <v>8.08</v>
       </c>
-      <c r="P210" t="s">
+      <c r="R210" t="s">
         <v>89</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5613,7 +5931,7 @@
   <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5654,11 +5972,11 @@
       <c r="J1" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
       <c r="N1" s="8" t="s">
         <v>454</v>
       </c>
@@ -5709,7 +6027,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="67.5">
+    <row r="3" spans="1:15" ht="40.5">
       <c r="A3" s="5" t="s">
         <v>467</v>
       </c>

--- a/ps3游戏列表.xlsx
+++ b/ps3游戏列表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\sicknecknamecoolman\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="756">
   <si>
     <t>游戏类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +76,6 @@
   </si>
   <si>
     <t>BAYONETTA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIG 3 GUN SHOOTING</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1758,1026 +1759,1051 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>游戏容量G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏官网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIMI评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GAMESPOT评分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏封面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏gif动图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美/日/欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS3创意动作游戏《3D点阵游戏英雄》用点阵图描绘的让人怀念的往昔二次元幻想世界、特意通过现今最先端的技術实现了立体化！当然、让人倍感温暖的点绘插图感觉仍然健在。本作是以2D点阵画面进行立体化的3D点阵世界为舞台,讲述一位英雄的冒险故事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏网站名字</t>
+  </si>
+  <si>
+    <t>游戏中文名字</t>
+  </si>
+  <si>
+    <t>游戏英文名字</t>
+  </si>
+  <si>
+    <t>游戏语言</t>
+  </si>
+  <si>
+    <t>游戏字幕</t>
+  </si>
+  <si>
+    <t>开发商</t>
+  </si>
+  <si>
+    <t>发行商</t>
+  </si>
+  <si>
+    <t>发售日期</t>
+  </si>
+  <si>
+    <t>游戏容量</t>
+  </si>
+  <si>
+    <t>游戏类型</t>
+  </si>
+  <si>
+    <t>游戏平台</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>网址</t>
+  </si>
+  <si>
+    <t>鬼屋魔影：冒死调查</t>
+  </si>
+  <si>
+    <t>鬼屋魔影5</t>
+  </si>
+  <si>
+    <t>Alone in the Dark</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>Eden Studios</t>
+  </si>
+  <si>
+    <t>Atari</t>
+  </si>
+  <si>
+    <t>动作冒险</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
+    <t>XBOX360</t>
+  </si>
+  <si>
+    <t>WII</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/2492.shtml</t>
+  </si>
+  <si>
+    <t>アナザーセンチュリーズエピソード アール</t>
+  </si>
+  <si>
+    <t>王牌机师R</t>
+  </si>
+  <si>
+    <t>Another Century's Episode R</t>
+  </si>
+  <si>
+    <t>日文</t>
+  </si>
+  <si>
+    <t>BandaiNamcoGames</t>
+  </si>
+  <si>
+    <t>NBGI</t>
+  </si>
+  <si>
+    <t>动作射击</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/9898.shtml</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> デモンズソウル</t>
+  </si>
+  <si>
+    <t>恶魔之魂</t>
+  </si>
+  <si>
+    <t>Demon's Souls</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>From Software，SCEJAPAN</t>
+  </si>
+  <si>
+    <t>亚洲地区SCE，欧美地区ATLUS</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/7595.shtml</t>
+  </si>
+  <si>
+    <t>Final Fantasy 10 HD</t>
+  </si>
+  <si>
+    <t>最终幻想10&amp;10-12高清重置版</t>
+  </si>
+  <si>
+    <t>Square Enix</t>
+  </si>
+  <si>
+    <t>角色扮演</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/12314.shtml</t>
+  </si>
+  <si>
+    <t>Killzone 2</t>
+  </si>
+  <si>
+    <t>杀戮地带2</t>
+  </si>
+  <si>
+    <t>Guerrilla</t>
+  </si>
+  <si>
+    <t>SCE</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/701.shtml</t>
+  </si>
+  <si>
+    <t>Lair</t>
+  </si>
+  <si>
+    <t>龙穴</t>
+  </si>
+  <si>
+    <t>Factor 5</t>
+  </si>
+  <si>
+    <t>飞行射击</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DragonAgeInquisition.html</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>荒野大镖客：救赎</t>
+  </si>
+  <si>
+    <t>Rockstar San Diego</t>
+  </si>
+  <si>
+    <t>Rockstar Game</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/8899.shtml</t>
+  </si>
+  <si>
+    <t>リッジレーサー7</t>
+  </si>
+  <si>
+    <t>山脊赛车7</t>
+  </si>
+  <si>
+    <t>Ridge Racer 7</t>
+  </si>
+  <si>
+    <t>Bandai Namco Games</t>
+  </si>
+  <si>
+    <t>Namco</t>
+  </si>
+  <si>
+    <t>赛车模拟</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOBatman3BeyondGotham.html</t>
+  </si>
+  <si>
+    <t>サイレン</t>
+  </si>
+  <si>
+    <t>死魂曲 新生</t>
+  </si>
+  <si>
+    <t>Siren</t>
+  </si>
+  <si>
+    <t>2008年</t>
+  </si>
+  <si>
+    <t>解密冒险</t>
+  </si>
+  <si>
+    <t>https://baike.baidu.com/item/%E6%AD%BB%E9%AD%82%E6%9B%B2/82331?fr=aladdin</t>
+  </si>
+  <si>
+    <t>Tekken 6</t>
+  </si>
+  <si>
+    <t>铁拳6</t>
+  </si>
+  <si>
+    <t>BANDAI NAMCO Games</t>
+  </si>
+  <si>
+    <t>格斗</t>
+  </si>
+  <si>
+    <t>PS3\PSP</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/911.shtml</t>
+  </si>
+  <si>
+    <t>Uncharted 2: Among Thieves</t>
+  </si>
+  <si>
+    <t>神秘海域2：纵横四海</t>
+  </si>
+  <si>
+    <t>Naughty Dog</t>
+  </si>
+  <si>
+    <t>SCEA</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/7465.shtml</t>
+  </si>
+  <si>
+    <t>真三國無双７</t>
+  </si>
+  <si>
+    <t>真三国无双7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shin Sangokumusou 7 </t>
+  </si>
+  <si>
+    <t>KOEI(ω-Force)</t>
+  </si>
+  <si>
+    <t>KOEI TECMO</t>
+  </si>
+  <si>
+    <t>PS3\PSV</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/13507.shtml</t>
+  </si>
+  <si>
+    <t>機動戦士ガンダム EXTREME VS. FULL BOOST</t>
+  </si>
+  <si>
+    <t>机动战士高达：极限对决 火力全开</t>
+  </si>
+  <si>
+    <t>高达EXVSFB</t>
+  </si>
+  <si>
+    <t>机动战士高达（钢弹）激战任务</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/14661.shtml</t>
+  </si>
+  <si>
+    <t>龍が如く0 誓いの場所</t>
+  </si>
+  <si>
+    <t>如龙0：起誓之地</t>
+  </si>
+  <si>
+    <t>Ryu ga Gotoku 0 ：Chikai no Bashou</t>
+  </si>
+  <si>
+    <t>Sega</t>
+  </si>
+  <si>
+    <t>PS3\PS4</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/16630.shtml</t>
+  </si>
+  <si>
+    <t>龍が如く3</t>
+  </si>
+  <si>
+    <t>如龙3</t>
+  </si>
+  <si>
+    <t>Ryu Ga Gotoku 3</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/game/5907.shtml</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/NarutoShippudenUNSR.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/UltraStreetFighterIV.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/SniperElite3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TransformersRiseoftheDarkSpark.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/MotoGP14.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/EnemyFront.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/MurderedSoulSuspect.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/2014FIFAWorldCupBrazil.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/KillerisDead.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/WatchDogs.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/BoundbyFlame.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOTheHobbit.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/YaibaNinjaGaidenZ.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DarkSouls2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SouthParkTheStickofTruth.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/CastlevaniaLordsofShadow2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Thief.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/FableAnniversary.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/MetalGearRisingRevengeance.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DragonsDogmaDarkArisen.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Bayonetta.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/LightningReturnsFinalFantasyXIII.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedforSpeedRivals.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadfallAdventures.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Battlefield4.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BatmanArkhamOrigins.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/WRCFIAWorldRallyChampionship4.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/NarutoShippudenUltimateNinjaStorm3FullBu.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed4BlackFlag.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOMarvelSuperHeroes.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Diablo3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShock2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShock.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/CastlevaniaLordsofShadow.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/FIFA14.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K14.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2014.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/GrandTheftAuto5.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheElderScrolls5SkyrimLegendaryEdition.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SplinterCellBlacklist.html\</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadorAlive5Ul.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LostPlanet3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MemoriesOffYubikirinoKioku.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DarkSoulsPreparetoDieEdition.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TenchuSenran.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/11EyesCrossOver.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/FIFA13.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/NikeKinectTraining.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectDisneylandAdventures.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/DanceCentral2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusou7.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/RememberMe.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvilRevelations.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DeadIslandRiptide.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden3RazorsEdge.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TheWalkingDeadSurvivalInstincts.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TombRider.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/OmertaCityofGangsters.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/RedDeadRedemptionGameoftheYearEdition.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DevilMayCry.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/HitmanAbsolution.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvil6.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SleepingDogs.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Prototype2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ArmoredCore5.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BatmanArkhamCity.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreedRevelations.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AliceMadnessReturns.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NarutoShippudenUltimateNinjaStorm2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreedBrotherhood.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DeadRising2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Mafia2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/PrinceOfPersiaTheForgottenSands.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AlanWake.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusouMultiRaid.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusou5Empires.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvil5.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaBlade.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BanjoKazooieNutsAndBolts.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/N3NinetyNineNights.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/KameoElementsOfPower.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/FableTheJourney.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectStarWars.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectRushADisneyPixarAdventure.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectimalsGoldNowWithBears.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectYourShapeFitnessEvolved2012.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectSportsSeasonTwo.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectKaradadeKotaeruAtarashiiNoutore.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectJoyRide.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectAdventures.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectSports.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K13.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2013.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2012.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K12.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K11.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/WorldSoccerWinningEleven2011.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/DeadOrAliveXtreme2ImperialEdition.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadOrAlive5.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/TheKingOfFighters13.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/BlazBlueContinuumShiftExtend.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadorAlive4.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedMostWanted.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaHorizon.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedTheRun.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaMotorsport4.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedHotPursuit.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaMotorsport3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedShift.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedUndercover.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/TestDriveUnlimited.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DragonAge2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TooHuman.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheWitcher2AssassinsOfKingsEnhancedEditi.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MassEffect3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/FinalFantasy132.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheElderScrolls5Skyrim.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Fable3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MassEffect2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Fable2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/LostOdyssey.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/KingdomUnderFireCircleOfDoom.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/BlueDragon.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/SpectralForce3InnocentRage.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShockInfinite.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWarJudgment.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/SniperGhostWarrior2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadSpace3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/FarCry3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo4.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MedalOfHonorWarfighter.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MaxPayne3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BinaryDomain.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Battlefield3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MedalOfHonor.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/HaloReach.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadSpace2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crackdown2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Left4Dead2.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo3ODST.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Left4Dead.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/AceCombat6.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo3.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/ShadowRun.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crackdown.html</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar.html</t>
+  </si>
+  <si>
+    <t>[GOD][中文版]战争机器2 Gears of War 2</t>
+  </si>
+  <si>
+    <t>战争机器2</t>
+  </si>
+  <si>
+    <t>Gears of War 2</t>
+  </si>
+  <si>
+    <t>繁体中文</t>
+  </si>
+  <si>
+    <t>EPIC Games</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>6.3 GB</t>
+  </si>
+  <si>
+    <t>第三视角射击</t>
+  </si>
+  <si>
+    <t>《战争机器2（Gears of War2）》是全球累计销售达450万套的Xbox360代表作《战争机器》续作，承袭前作故事剧情，并提供比前作规模更大、水准更高、也更为狂暴激烈的游戏体验。游戏将采用EpicGames最新研发的加强版‘Unreal Engine3’次世代游戏引擎，进一步强化画面表现，并提供包括流体/柔体物理模拟与呈现数量更为庞大的敌我角色。</t>
+  </si>
+  <si>
+    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar2.html</t>
+  </si>
+  <si>
+    <t>索尼商店官网all ps3 games:</t>
+  </si>
+  <si>
+    <t>维基百科wiki ps3 games released:</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_PlayStation_3_games_released_on_disc</t>
+  </si>
+  <si>
+    <t>ranker：</t>
+  </si>
+  <si>
+    <t>https://www.ranker.com/list/sony-playstation-3-games-list-of-ps3-console-games/video-games-by-console?ref=collections&amp;l=284087&amp;collectionId=678</t>
+  </si>
+  <si>
+    <t>gamefaq:</t>
+  </si>
+  <si>
+    <t>https://www.gamefaqs.com/ps3/alpha/1-a</t>
+  </si>
+  <si>
+    <t>metacritic</t>
+  </si>
+  <si>
+    <t>http://www.metacritic.com/browse/games/release-date/available/ps3/metascore</t>
+  </si>
+  <si>
+    <t>多玩ps3游戏数据库</t>
+  </si>
+  <si>
+    <t>http://tvgdb.duowan.com/ps3/</t>
+  </si>
+  <si>
+    <t>电玩巴士ps3游戏发布列表（按月列出）</t>
+  </si>
+  <si>
+    <t>http://gf.tgbus.com/reference/2/2006-11/</t>
+  </si>
+  <si>
+    <t>希望可以抓取每一个网站时有一个锚点设置。 锚点可以记录这次抓取的内容和位置，类似于一个screenshot功能，下次继续这次的位置抓取。</t>
+  </si>
+  <si>
+    <t>如果某个网站有更新的时候，可以比对上一次抓取的内容，进行增量查询并抓取。</t>
+  </si>
+  <si>
+    <t>镜像版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏网址A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏网址B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>动作类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏容量G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏官网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下载量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIMI评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GAMESPOT评分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏简介</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏封面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏gif动图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美/日/欧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS3创意动作游戏《3D点阵游戏英雄》用点阵图描绘的让人怀念的往昔二次元幻想世界、特意通过现今最先端的技術实现了立体化！当然、让人倍感温暖的点绘插图感觉仍然健在。本作是以2D点阵画面进行立体化的3D点阵世界为舞台,讲述一位英雄的冒险故事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏网站名字</t>
-  </si>
-  <si>
-    <t>游戏中文名字</t>
-  </si>
-  <si>
-    <t>游戏英文名字</t>
-  </si>
-  <si>
-    <t>游戏语言</t>
-  </si>
-  <si>
-    <t>游戏字幕</t>
-  </si>
-  <si>
-    <t>开发商</t>
-  </si>
-  <si>
-    <t>发行商</t>
-  </si>
-  <si>
-    <t>发售日期</t>
-  </si>
-  <si>
-    <t>游戏容量</t>
-  </si>
-  <si>
-    <t>游戏类型</t>
-  </si>
-  <si>
-    <t>游戏平台</t>
-  </si>
-  <si>
     <t>DLC</t>
-  </si>
-  <si>
-    <t>网址</t>
-  </si>
-  <si>
-    <t>鬼屋魔影：冒死调查</t>
-  </si>
-  <si>
-    <t>鬼屋魔影5</t>
-  </si>
-  <si>
-    <t>Alone in the Dark</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>Eden Studios</t>
-  </si>
-  <si>
-    <t>Atari</t>
-  </si>
-  <si>
-    <t>动作冒险</t>
-  </si>
-  <si>
-    <t>PS3</t>
-  </si>
-  <si>
-    <t>XBOX360</t>
-  </si>
-  <si>
-    <t>WII</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/2492.shtml</t>
-  </si>
-  <si>
-    <t>アナザーセンチュリーズエピソード アール</t>
-  </si>
-  <si>
-    <t>王牌机师R</t>
-  </si>
-  <si>
-    <t>Another Century's Episode R</t>
-  </si>
-  <si>
-    <t>日文</t>
-  </si>
-  <si>
-    <t>BandaiNamcoGames</t>
-  </si>
-  <si>
-    <t>NBGI</t>
-  </si>
-  <si>
-    <t>动作射击</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/9898.shtml</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> デモンズソウル</t>
-  </si>
-  <si>
-    <t>恶魔之魂</t>
-  </si>
-  <si>
-    <t>Demon's Souls</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>From Software，SCEJAPAN</t>
-  </si>
-  <si>
-    <t>亚洲地区SCE，欧美地区ATLUS</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/7595.shtml</t>
-  </si>
-  <si>
-    <t>Final Fantasy 10 HD</t>
-  </si>
-  <si>
-    <t>最终幻想10&amp;10-12高清重置版</t>
-  </si>
-  <si>
-    <t>Square Enix</t>
-  </si>
-  <si>
-    <t>角色扮演</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/12314.shtml</t>
-  </si>
-  <si>
-    <t>Killzone 2</t>
-  </si>
-  <si>
-    <t>杀戮地带2</t>
-  </si>
-  <si>
-    <t>Guerrilla</t>
-  </si>
-  <si>
-    <t>SCE</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/701.shtml</t>
-  </si>
-  <si>
-    <t>Lair</t>
-  </si>
-  <si>
-    <t>龙穴</t>
-  </si>
-  <si>
-    <t>Factor 5</t>
-  </si>
-  <si>
-    <t>飞行射击</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DragonAgeInquisition.html</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>荒野大镖客：救赎</t>
-  </si>
-  <si>
-    <t>Rockstar San Diego</t>
-  </si>
-  <si>
-    <t>Rockstar Game</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/8899.shtml</t>
-  </si>
-  <si>
-    <t>リッジレーサー7</t>
-  </si>
-  <si>
-    <t>山脊赛车7</t>
-  </si>
-  <si>
-    <t>Ridge Racer 7</t>
-  </si>
-  <si>
-    <t>Bandai Namco Games</t>
-  </si>
-  <si>
-    <t>Namco</t>
-  </si>
-  <si>
-    <t>赛车模拟</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOBatman3BeyondGotham.html</t>
-  </si>
-  <si>
-    <t>サイレン</t>
-  </si>
-  <si>
-    <t>死魂曲 新生</t>
-  </si>
-  <si>
-    <t>Siren</t>
-  </si>
-  <si>
-    <t>2008年</t>
-  </si>
-  <si>
-    <t>解密冒险</t>
-  </si>
-  <si>
-    <t>https://baike.baidu.com/item/%E6%AD%BB%E9%AD%82%E6%9B%B2/82331?fr=aladdin</t>
-  </si>
-  <si>
-    <t>Tekken 6</t>
-  </si>
-  <si>
-    <t>铁拳6</t>
-  </si>
-  <si>
-    <t>BANDAI NAMCO Games</t>
-  </si>
-  <si>
-    <t>格斗</t>
-  </si>
-  <si>
-    <t>PS3\PSP</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/911.shtml</t>
-  </si>
-  <si>
-    <t>Uncharted 2: Among Thieves</t>
-  </si>
-  <si>
-    <t>神秘海域2：纵横四海</t>
-  </si>
-  <si>
-    <t>Naughty Dog</t>
-  </si>
-  <si>
-    <t>SCEA</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/7465.shtml</t>
-  </si>
-  <si>
-    <t>真三國無双７</t>
-  </si>
-  <si>
-    <t>真三国无双7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shin Sangokumusou 7 </t>
-  </si>
-  <si>
-    <t>KOEI(ω-Force)</t>
-  </si>
-  <si>
-    <t>KOEI TECMO</t>
-  </si>
-  <si>
-    <t>PS3\PSV</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/13507.shtml</t>
-  </si>
-  <si>
-    <t>機動戦士ガンダム EXTREME VS. FULL BOOST</t>
-  </si>
-  <si>
-    <t>机动战士高达：极限对决 火力全开</t>
-  </si>
-  <si>
-    <t>高达EXVSFB</t>
-  </si>
-  <si>
-    <t>机动战士高达（钢弹）激战任务</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/14661.shtml</t>
-  </si>
-  <si>
-    <t>龍が如く0 誓いの場所</t>
-  </si>
-  <si>
-    <t>如龙0：起誓之地</t>
-  </si>
-  <si>
-    <t>Ryu ga Gotoku 0 ：Chikai no Bashou</t>
-  </si>
-  <si>
-    <t>Sega</t>
-  </si>
-  <si>
-    <t>PS3\PS4</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/16630.shtml</t>
-  </si>
-  <si>
-    <t>龍が如く3</t>
-  </si>
-  <si>
-    <t>如龙3</t>
-  </si>
-  <si>
-    <t>Ryu Ga Gotoku 3</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/game/5907.shtml</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/NarutoShippudenUNSR.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/UltraStreetFighterIV.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/SniperElite3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TransformersRiseoftheDarkSpark.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/MotoGP14.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/EnemyFront.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/MurderedSoulSuspect.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/2014FIFAWorldCupBrazil.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/KillerisDead.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/WatchDogs.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/BoundbyFlame.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOTheHobbit.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/YaibaNinjaGaidenZ.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DarkSouls2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SouthParkTheStickofTruth.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/CastlevaniaLordsofShadow2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Thief.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/FableAnniversary.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/MetalGearRisingRevengeance.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DragonsDogmaDarkArisen.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Bayonetta.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/LightningReturnsFinalFantasyXIII.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedforSpeedRivals.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadfallAdventures.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Battlefield4.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BatmanArkhamOrigins.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/WRCFIAWorldRallyChampionship4.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/NarutoShippudenUltimateNinjaStorm3FullBu.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed4BlackFlag.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LEGOMarvelSuperHeroes.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Diablo3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShock2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShock.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/CastlevaniaLordsofShadow.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/FIFA14.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K14.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2014.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/GrandTheftAuto5.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheElderScrolls5SkyrimLegendaryEdition.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SplinterCellBlacklist.html\</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadorAlive5Ul.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/LostPlanet3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MemoriesOffYubikirinoKioku.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DarkSoulsPreparetoDieEdition.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TenchuSenran.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/11EyesCrossOver.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/FIFA13.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/NikeKinectTraining.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectDisneylandAdventures.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/DanceCentral2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusou7.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/RememberMe.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvilRevelations.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DeadIslandRiptide.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden3RazorsEdge.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TheWalkingDeadSurvivalInstincts.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/TombRider.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/OmertaCityofGangsters.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/RedDeadRedemptionGameoftheYearEdition.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DevilMayCry.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/HitmanAbsolution.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvil6.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/SleepingDogs.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Prototype2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ArmoredCore5.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BatmanArkhamCity.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreedRevelations.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AliceMadnessReturns.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NarutoShippudenUltimateNinjaStorm2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreedBrotherhood.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/DeadRising2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/Mafia2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/PrinceOfPersiaTheForgottenSands.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AlanWake.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/AssassinsCreed2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusouMultiRaid.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ShinSangokuMusou5Empires.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/ResidentEvil5.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaBlade.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/BanjoKazooieNutsAndBolts.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/NinjaGaiden2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/N3NinetyNineNights.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/dongzuo/KameoElementsOfPower.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/FableTheJourney.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectStarWars.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectRushADisneyPixarAdventure.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectimalsGoldNowWithBears.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectYourShapeFitnessEvolved2012.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectSportsSeasonTwo.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectKaradadeKotaeruAtarashiiNoutore.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectJoyRide.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectAdventures.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/Kinect/KinectSports.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K13.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2013.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/ProEvolutionSoccer2012.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K12.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/NBA2K11.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/WorldSoccerWinningEleven2011.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/tiyu/DeadOrAliveXtreme2ImperialEdition.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadOrAlive5.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/TheKingOfFighters13.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/BlazBlueContinuumShiftExtend.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/gedou/DeadorAlive4.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedMostWanted.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaHorizon.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedTheRun.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaMotorsport4.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedHotPursuit.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/ForzaMotorsport3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedShift.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/NeedForSpeedUndercover.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jingsu/TestDriveUnlimited.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/DragonAge2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TooHuman.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheWitcher2AssassinsOfKingsEnhancedEditi.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MassEffect3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/FinalFantasy132.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/TheElderScrolls5Skyrim.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Fable3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/MassEffect2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/Fable2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/LostOdyssey.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/KingdomUnderFireCircleOfDoom.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/BlueDragon.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/jiaosebanyan/SpectralForce3InnocentRage.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BioShockInfinite.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWarJudgment.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/SniperGhostWarrior2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadSpace3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/FarCry3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo4.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MedalOfHonorWarfighter.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MaxPayne3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/BinaryDomain.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Battlefield3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crysis2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/MedalOfHonor.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/HaloReach.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/DeadSpace2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crackdown2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Left4Dead2.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo3ODST.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Left4Dead.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/AceCombat6.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Halo3.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/ShadowRun.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/Crackdown.html</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar.html</t>
-  </si>
-  <si>
-    <t>[GOD][中文版]战争机器2 Gears of War 2</t>
-  </si>
-  <si>
-    <t>战争机器2</t>
-  </si>
-  <si>
-    <t>Gears of War 2</t>
-  </si>
-  <si>
-    <t>繁体中文</t>
-  </si>
-  <si>
-    <t>EPIC Games</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>6.3 GB</t>
-  </si>
-  <si>
-    <t>第三视角射击</t>
-  </si>
-  <si>
-    <t>《战争机器2（Gears of War2）》是全球累计销售达450万套的Xbox360代表作《战争机器》续作，承袭前作故事剧情，并提供比前作规模更大、水准更高、也更为狂暴激烈的游戏体验。游戏将采用EpicGames最新研发的加强版‘Unreal Engine3’次世代游戏引擎，进一步强化画面表现，并提供包括流体/柔体物理模拟与呈现数量更为庞大的敌我角色。</t>
-  </si>
-  <si>
-    <t>http://www.dwjoy.com/game/zhongwenyouxi/sheji/GearsOfWar2.html</t>
-  </si>
-  <si>
-    <t>索尼商店官网all ps3 games:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堡礁秘辛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解谜类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要外设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摄像头（必须）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间危机、时间危机4、海盗射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞机类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能读镜像：the disc has been ejected.please reinsert the disc；需要选bd，external</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色扮演；动作类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gamespot.com/3d-dot-game-heroes/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛车类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接进黑屏；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIG 3 GUN SHOOTING</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://store.playstation.com/en-us/grid/STORE-MSF77008-PS3ALLPS3GAMES/1</t>
-  </si>
-  <si>
-    <t>维基百科wiki ps3 games released:</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_PlayStation_3_games_released_on_disc</t>
-  </si>
-  <si>
-    <t>ranker：</t>
-  </si>
-  <si>
-    <t>https://www.ranker.com/list/sony-playstation-3-games-list-of-ps3-console-games/video-games-by-console?ref=collections&amp;l=284087&amp;collectionId=678</t>
-  </si>
-  <si>
-    <t>gamefaq:</t>
-  </si>
-  <si>
-    <t>https://www.gamefaqs.com/ps3/alpha/1-a</t>
-  </si>
-  <si>
-    <t>metacritic</t>
-  </si>
-  <si>
-    <t>http://www.metacritic.com/browse/games/release-date/available/ps3/metascore</t>
-  </si>
-  <si>
-    <t>多玩ps3游戏数据库</t>
-  </si>
-  <si>
-    <t>http://tvgdb.duowan.com/ps3/</t>
-  </si>
-  <si>
-    <t>电玩巴士ps3游戏发布列表（按月列出）</t>
-  </si>
-  <si>
-    <t>http://gf.tgbus.com/reference/2/2006-11/</t>
-  </si>
-  <si>
-    <t>希望可以抓取每一个网站时有一个锚点设置。 锚点可以记录这次抓取的内容和位置，类似于一个screenshot功能，下次继续这次的位置抓取。</t>
-  </si>
-  <si>
-    <t>如果某个网站有更新的时候，可以比对上一次抓取的内容，进行增量查询并抓取。</t>
-  </si>
-  <si>
-    <t>镜像版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏网址A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏网址B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DLC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动作类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射击类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堡礁秘辛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解谜类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要外设</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>激光枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摄像头（必须）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间危机、时间危机4、海盗射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞机类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能读镜像：the disc has been ejected.please reinsert the disc；需要选bd，external</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2865,7 +2891,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2885,6 +2911,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2899,6 +2928,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2945,7 +2982,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2977,9 +3014,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3011,6 +3049,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3186,41 +3225,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="44.875" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="17.125" customWidth="1"/>
     <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" t="s">
         <v>419</v>
-      </c>
-      <c r="F1" t="s">
-        <v>420</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -3229,92 +3269,92 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J1" t="s">
+        <v>725</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" t="s">
+        <v>732</v>
+      </c>
+      <c r="O1" t="s">
+        <v>742</v>
+      </c>
+      <c r="P1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R1" t="s">
+        <v>422</v>
+      </c>
+      <c r="S1" t="s">
+        <v>424</v>
+      </c>
+      <c r="T1" t="s">
+        <v>426</v>
+      </c>
+      <c r="U1" t="s">
         <v>427</v>
       </c>
-      <c r="J1" t="s">
+      <c r="V1" t="s">
+        <v>428</v>
+      </c>
+      <c r="W1" t="s">
+        <v>429</v>
+      </c>
+      <c r="X1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>437</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" t="s">
         <v>728</v>
       </c>
-      <c r="K1" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" t="s">
-        <v>735</v>
-      </c>
-      <c r="O1" t="s">
-        <v>745</v>
-      </c>
-      <c r="P1" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>421</v>
-      </c>
-      <c r="R1" t="s">
-        <v>423</v>
-      </c>
-      <c r="S1" t="s">
-        <v>425</v>
-      </c>
-      <c r="T1" t="s">
-        <v>428</v>
-      </c>
-      <c r="U1" t="s">
-        <v>429</v>
-      </c>
-      <c r="V1" t="s">
-        <v>430</v>
-      </c>
-      <c r="W1" t="s">
-        <v>431</v>
-      </c>
-      <c r="X1" t="s">
-        <v>432</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>434</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>436</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>439</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="F2" t="s">
         <v>729</v>
       </c>
-      <c r="AE1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" t="s">
-        <v>416</v>
-      </c>
-      <c r="D2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E2" t="s">
-        <v>731</v>
-      </c>
-      <c r="F2" t="s">
-        <v>732</v>
-      </c>
       <c r="G2" t="s">
-        <v>426</v>
+        <v>748</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -3323,22 +3363,22 @@
         <v>3.08</v>
       </c>
       <c r="J2" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="K2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="P2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S2" s="1">
-        <v>40312</v>
+        <v>40309</v>
       </c>
       <c r="U2">
         <v>9014</v>
@@ -3353,24 +3393,27 @@
         <v>7.5</v>
       </c>
       <c r="Y2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>436</v>
+      </c>
+      <c r="AD2" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G3" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -3379,24 +3422,24 @@
         <v>11.81</v>
       </c>
       <c r="J3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F4" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G4" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -3405,24 +3448,24 @@
         <v>3.54</v>
       </c>
       <c r="J4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="F5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -3431,24 +3474,24 @@
         <v>5.57</v>
       </c>
       <c r="J5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F6" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="G6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3457,41 +3500,41 @@
         <v>18.11</v>
       </c>
       <c r="J6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7">
         <v>2.21</v>
       </c>
       <c r="O7" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
+        <v>733</v>
+      </c>
+      <c r="F8" t="s">
         <v>736</v>
       </c>
-      <c r="F8" t="s">
-        <v>739</v>
-      </c>
       <c r="G8" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -3500,24 +3543,24 @@
         <v>2.66</v>
       </c>
       <c r="J8" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F9" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G9" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -3526,24 +3569,24 @@
         <v>4.38</v>
       </c>
       <c r="J9" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F10" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G10" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -3552,24 +3595,24 @@
         <v>2.77</v>
       </c>
       <c r="J10" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F11" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G11" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -3578,24 +3621,24 @@
         <v>6.57</v>
       </c>
       <c r="J11" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F12" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G12" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -3604,24 +3647,24 @@
         <v>0.97</v>
       </c>
       <c r="J12" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F13" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G13" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -3630,24 +3673,24 @@
         <v>6.35</v>
       </c>
       <c r="J13" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F14" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G14" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -3656,27 +3699,27 @@
         <v>10.84</v>
       </c>
       <c r="J14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" t="s">
+        <v>754</v>
+      </c>
+      <c r="D15" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>737</v>
+      </c>
+      <c r="F15" t="s">
+        <v>737</v>
+      </c>
+      <c r="G15" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" t="s">
-        <v>748</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" t="s">
-        <v>740</v>
-      </c>
-      <c r="F15" t="s">
-        <v>740</v>
-      </c>
-      <c r="G15" t="s">
-        <v>741</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3685,27 +3728,27 @@
         <v>16.309999999999999</v>
       </c>
       <c r="J15" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="O15" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F16" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G16" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -3714,24 +3757,24 @@
         <v>6.68</v>
       </c>
       <c r="J16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>733</v>
+      </c>
+      <c r="F17" t="s">
+        <v>733</v>
+      </c>
+      <c r="G17" t="s">
         <v>738</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" t="s">
-        <v>736</v>
-      </c>
-      <c r="F17" t="s">
-        <v>736</v>
-      </c>
-      <c r="G17" t="s">
-        <v>741</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -3740,24 +3783,24 @@
         <v>7.66</v>
       </c>
       <c r="J17" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E18" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F18" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="G18" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -3766,24 +3809,24 @@
         <v>5.36</v>
       </c>
       <c r="J18" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -3792,27 +3835,27 @@
         <v>12.79</v>
       </c>
       <c r="J19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="O19" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F20" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G20" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -3821,2100 +3864,2118 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="J20" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>750</v>
+      </c>
+      <c r="F21" t="s">
+        <v>751</v>
+      </c>
+      <c r="G21" t="s">
+        <v>752</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
       </c>
       <c r="I21">
         <v>3.49</v>
       </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="J21" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I22">
         <v>13.61</v>
       </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="O22" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I23">
         <v>11.2</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I24">
         <v>3.93</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I25">
         <v>11.71</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I26">
         <v>9.8699999999999992</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I27">
         <v>6.8</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I28">
         <v>5.56</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I29">
         <v>2.44</v>
       </c>
     </row>
-    <row r="30" spans="2:15">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I30">
         <v>5.71</v>
       </c>
     </row>
-    <row r="31" spans="2:15">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I31">
         <v>5.51</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I32">
         <v>1.19</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I33">
         <v>6.16</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I34">
         <v>5.66</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I35">
         <v>13.57</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I36">
         <v>8.18</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I37">
         <v>8.41</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38">
         <v>6.22</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I39">
         <v>6.89</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I40">
         <v>4.82</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I41">
         <v>5.48</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I42">
         <v>2.63</v>
       </c>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I43">
         <v>5.17</v>
       </c>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I44">
         <v>7.31</v>
       </c>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I45">
         <v>9.5</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I46">
         <v>3.81</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I47">
         <v>1.46</v>
       </c>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I48">
         <v>2.39</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I49">
         <v>37.6</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I50">
         <v>1.25</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I51">
         <v>11.79</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I52">
         <v>3.45</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I53">
         <v>14.98</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I54">
         <v>34.24</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I55">
         <v>20.88</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I56">
         <v>10.26</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I57">
         <v>7.15</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I58">
         <v>5.61</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I59">
         <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I60">
         <v>17.89</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I61">
         <v>18.440000000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I62">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I63">
         <v>6.23</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I64">
         <v>6.86</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I65">
         <v>5.79</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I66">
         <v>3.33</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I67">
         <v>3.92</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I68">
         <v>3.91</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I69">
         <v>2.93</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I70">
         <v>41.4</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I71">
         <v>12.09</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I72">
         <v>19.46</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I73">
         <v>9.41</v>
       </c>
     </row>
-    <row r="74" spans="2:9">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I74">
         <v>0.53</v>
       </c>
     </row>
-    <row r="75" spans="2:9">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I75">
         <v>4.87</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I76">
         <v>7.88</v>
       </c>
     </row>
-    <row r="77" spans="2:9">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I77">
         <v>6.93</v>
       </c>
     </row>
-    <row r="78" spans="2:9">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I78">
         <v>16.71</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I79">
         <v>10.47</v>
       </c>
     </row>
-    <row r="80" spans="2:9">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I80">
         <v>3.69</v>
       </c>
     </row>
-    <row r="81" spans="2:9">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I81">
         <v>3.69</v>
       </c>
     </row>
-    <row r="82" spans="2:9">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I82">
         <v>0.74</v>
       </c>
     </row>
-    <row r="83" spans="2:9">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I83">
         <v>1.37</v>
       </c>
     </row>
-    <row r="84" spans="2:9">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I84">
         <v>2.91</v>
       </c>
     </row>
-    <row r="85" spans="2:9">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I85">
         <v>6.6</v>
       </c>
     </row>
-    <row r="86" spans="2:9">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I86">
         <v>4.51</v>
       </c>
     </row>
-    <row r="87" spans="2:9">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I87">
         <v>5.54</v>
       </c>
     </row>
-    <row r="88" spans="2:9">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I88">
         <v>9.06</v>
       </c>
     </row>
-    <row r="89" spans="2:9">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I89">
         <v>29.89</v>
       </c>
     </row>
-    <row r="90" spans="2:9">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I90">
         <v>6.39</v>
       </c>
     </row>
-    <row r="91" spans="2:9">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I91">
         <v>4.83</v>
       </c>
     </row>
-    <row r="92" spans="2:9">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I92">
         <v>7.26</v>
       </c>
     </row>
-    <row r="93" spans="2:9">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I93">
         <v>12.45</v>
       </c>
     </row>
-    <row r="94" spans="2:9">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I94">
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="95" spans="2:9">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I95">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="96" spans="2:9">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I96">
         <v>5.81</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I97">
         <v>18.78</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I98">
         <v>13.42</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I99">
         <v>2.8</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I100">
         <v>1.37</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I101">
         <v>6.97</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I102">
         <v>0.78</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I103">
         <v>6.77</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I104">
         <v>1.21</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I105">
         <v>6.75</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I106">
         <v>11.21</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I107">
         <v>3.74</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I108">
         <v>5.58</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I109">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I110">
         <v>5.05</v>
       </c>
     </row>
-    <row r="111" spans="2:9">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I111">
         <v>4.22</v>
       </c>
     </row>
-    <row r="112" spans="2:9">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I112">
         <v>9.06</v>
       </c>
     </row>
-    <row r="113" spans="2:9">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I113">
         <v>2.64</v>
       </c>
     </row>
-    <row r="114" spans="2:9">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I114">
         <v>2.88</v>
       </c>
     </row>
-    <row r="115" spans="2:9">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115">
         <v>4.59</v>
       </c>
     </row>
-    <row r="116" spans="2:9">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I116">
         <v>22.25</v>
       </c>
     </row>
-    <row r="117" spans="2:9">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D117" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I117">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="118" spans="2:9">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D118" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I118">
         <v>7.43</v>
       </c>
     </row>
-    <row r="119" spans="2:9">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I119">
         <v>9.94</v>
       </c>
     </row>
-    <row r="120" spans="2:9">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B120" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D120" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I120">
         <v>13.09</v>
       </c>
     </row>
-    <row r="121" spans="2:9">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I121">
         <v>6.66</v>
       </c>
     </row>
-    <row r="122" spans="2:9">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D122" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I122">
         <v>1.83</v>
       </c>
     </row>
-    <row r="123" spans="2:9">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D123" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I123">
         <v>10.84</v>
       </c>
     </row>
-    <row r="124" spans="2:9">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I124">
         <v>1.85</v>
       </c>
     </row>
-    <row r="125" spans="2:9">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D125" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I125">
         <v>2.25</v>
       </c>
     </row>
-    <row r="126" spans="2:9">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D126" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I126">
         <v>2.25</v>
       </c>
     </row>
-    <row r="127" spans="2:9">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B127" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D127" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I127">
         <v>3.36</v>
       </c>
     </row>
-    <row r="128" spans="2:9">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D128" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I128">
         <v>2.39</v>
       </c>
     </row>
-    <row r="129" spans="2:9">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D129" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I129">
         <v>5.9</v>
       </c>
     </row>
-    <row r="130" spans="2:9">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D130" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I130">
         <v>7.21</v>
       </c>
     </row>
-    <row r="131" spans="2:9">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D131" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I131">
         <v>9.16</v>
       </c>
     </row>
-    <row r="132" spans="2:9">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D132" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I132">
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="133" spans="2:9">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B133" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D133" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I133">
         <v>7.67</v>
       </c>
     </row>
-    <row r="134" spans="2:9">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D134" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I134">
         <v>6.38</v>
       </c>
     </row>
-    <row r="135" spans="2:9">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I135">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="2:9">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D136" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I136">
         <v>7.66</v>
       </c>
     </row>
-    <row r="137" spans="2:9">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I137">
         <v>6.14</v>
       </c>
     </row>
-    <row r="138" spans="2:9">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B138" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D138" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I138">
         <v>13.32</v>
       </c>
     </row>
-    <row r="139" spans="2:9">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D139" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I139">
         <v>11.27</v>
       </c>
     </row>
-    <row r="140" spans="2:9">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D140" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I140">
         <v>8.73</v>
       </c>
     </row>
-    <row r="141" spans="2:9">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D141" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I141">
         <v>4.2300000000000004</v>
       </c>
     </row>
-    <row r="142" spans="2:9">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D142" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I142">
         <v>6.19</v>
       </c>
     </row>
-    <row r="143" spans="2:9">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D143" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I143">
         <v>0.59</v>
       </c>
     </row>
-    <row r="144" spans="2:9">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B144" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I144">
         <v>1.79</v>
       </c>
     </row>
-    <row r="145" spans="2:9">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B145" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D145" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I145">
         <v>5.88</v>
       </c>
     </row>
-    <row r="146" spans="2:9">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I146">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="147" spans="2:9">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D147" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I147">
         <v>25.91</v>
       </c>
     </row>
-    <row r="148" spans="2:9">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D148" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I148">
         <v>22.49</v>
       </c>
     </row>
-    <row r="149" spans="2:9">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D149" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I149">
         <v>7.47</v>
       </c>
     </row>
-    <row r="150" spans="2:9">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D150" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I150">
         <v>9.8800000000000008</v>
       </c>
     </row>
-    <row r="151" spans="2:9">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B151" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D151" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I151">
         <v>8.3800000000000008</v>
       </c>
     </row>
-    <row r="152" spans="2:9">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D152" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I152">
         <v>3.65</v>
       </c>
     </row>
-    <row r="153" spans="2:9">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D153" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I153">
         <v>4.78</v>
       </c>
     </row>
-    <row r="154" spans="2:9">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D154" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I154">
         <v>1.04</v>
       </c>
     </row>
-    <row r="155" spans="2:9">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D155" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I155">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="156" spans="2:9">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D156" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I156">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="157" spans="2:9">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D157" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I157">
         <v>20.79</v>
       </c>
     </row>
-    <row r="158" spans="2:9">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D158" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I158">
         <v>20.83</v>
       </c>
     </row>
-    <row r="159" spans="2:9">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I159">
         <v>4.2</v>
       </c>
     </row>
-    <row r="160" spans="2:9">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D160" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I160">
         <v>3.81</v>
       </c>
     </row>
-    <row r="161" spans="2:9">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D161" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I161">
         <v>5.36</v>
       </c>
     </row>
-    <row r="162" spans="2:9">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D162" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I162">
         <v>11.58</v>
       </c>
     </row>
-    <row r="163" spans="2:9">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B163" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D163" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I163">
         <v>3.74</v>
       </c>
     </row>
-    <row r="164" spans="2:9">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D164" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I164">
         <v>4.92</v>
       </c>
     </row>
-    <row r="165" spans="2:9">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D165" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I165">
         <v>6.5</v>
       </c>
     </row>
-    <row r="166" spans="2:9">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I166">
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="167" spans="2:9">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D167" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I167">
         <v>13.67</v>
       </c>
     </row>
-    <row r="168" spans="2:9">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B168" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D168" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I168">
         <v>0.99</v>
       </c>
     </row>
-    <row r="169" spans="2:9">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D169" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I169">
         <v>2.76</v>
       </c>
     </row>
-    <row r="170" spans="2:9">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D170" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I170">
         <v>1.85</v>
       </c>
     </row>
-    <row r="171" spans="2:9">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D171" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I171">
         <v>1.85</v>
       </c>
     </row>
-    <row r="172" spans="2:9">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I172">
         <v>6.62</v>
       </c>
     </row>
-    <row r="173" spans="2:9">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I173">
         <v>9.27</v>
       </c>
     </row>
-    <row r="174" spans="2:9">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I174">
         <v>10.72</v>
       </c>
     </row>
-    <row r="175" spans="2:9">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D175" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I175">
         <v>6.31</v>
       </c>
     </row>
-    <row r="176" spans="2:9">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D176" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I176">
         <v>6.97</v>
       </c>
     </row>
-    <row r="177" spans="2:9">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D177" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I177">
         <v>1.27</v>
       </c>
     </row>
-    <row r="178" spans="2:9">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I178">
         <v>3.61</v>
       </c>
     </row>
-    <row r="179" spans="2:9">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I179">
         <v>1.3</v>
       </c>
     </row>
-    <row r="180" spans="2:9">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B180" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I180">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="181" spans="2:9">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B181" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D181" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I181">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="182" spans="2:9">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D182" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I182">
         <v>7.02</v>
       </c>
     </row>
-    <row r="183" spans="2:9">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D183" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I183">
         <v>6.4</v>
       </c>
     </row>
-    <row r="184" spans="2:9">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D184" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I184">
         <v>10.31</v>
       </c>
     </row>
-    <row r="185" spans="2:9">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D185" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I185">
         <v>6.6</v>
       </c>
     </row>
-    <row r="186" spans="2:9">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B186" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D186" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I186">
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="2:9">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B187" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D187" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I187">
         <v>3.02</v>
       </c>
     </row>
-    <row r="188" spans="2:9">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B188" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D188" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I188">
         <v>1.33</v>
       </c>
     </row>
-    <row r="189" spans="2:9">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B189" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D189" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I189">
         <v>3.8</v>
       </c>
     </row>
-    <row r="190" spans="2:9">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B190" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I190">
         <v>2.57</v>
       </c>
     </row>
-    <row r="191" spans="2:9">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B191" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D191" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I191">
         <v>2.04</v>
       </c>
     </row>
-    <row r="192" spans="2:9">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B192" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D192" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I192">
         <v>4.46</v>
       </c>
     </row>
-    <row r="193" spans="2:9">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B193" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D193" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I193">
         <v>14.44</v>
       </c>
     </row>
-    <row r="194" spans="2:9">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B194" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D194" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I194">
         <v>4.1500000000000004</v>
       </c>
     </row>
-    <row r="195" spans="2:9">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B195" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D195" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I195">
         <v>8.9499999999999993</v>
       </c>
     </row>
-    <row r="196" spans="2:9">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B196" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D196" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I196">
         <v>17.05</v>
       </c>
     </row>
-    <row r="197" spans="2:9">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B197" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D197" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I197">
         <v>13.7</v>
       </c>
     </row>
-    <row r="198" spans="2:9">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B198" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D198" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="I198">
         <v>4.1100000000000003</v>
       </c>
     </row>
-    <row r="199" spans="2:9">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B199" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D199" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="I199">
         <v>2.14</v>
       </c>
     </row>
-    <row r="200" spans="2:9">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B200" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D200" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I200">
         <v>11.93</v>
       </c>
     </row>
-    <row r="201" spans="2:9">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B201" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D201" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I201">
         <v>12.22</v>
       </c>
     </row>
-    <row r="202" spans="2:9">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B202" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D202" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I202">
         <v>7.36</v>
       </c>
     </row>
-    <row r="203" spans="2:9">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B203" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I203">
         <v>5.39</v>
       </c>
     </row>
-    <row r="204" spans="2:9">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B204" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D204" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I204">
         <v>2.1</v>
       </c>
     </row>
-    <row r="205" spans="2:9">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B205" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D205" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I205">
         <v>1.27</v>
       </c>
     </row>
-    <row r="206" spans="2:9">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B206" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D206" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I206">
         <v>19.64</v>
       </c>
     </row>
-    <row r="207" spans="2:9">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B207" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D207" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I207">
         <v>19.87</v>
       </c>
     </row>
-    <row r="208" spans="2:9">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D208" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I208">
         <v>21.49</v>
       </c>
     </row>
-    <row r="209" spans="2:18">
+    <row r="209" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B209" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D209" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I209">
         <v>11.95</v>
       </c>
     </row>
-    <row r="210" spans="2:18">
+    <row r="210" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D210" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I210">
         <v>8.08</v>
       </c>
       <c r="R210" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -5922,666 +5983,670 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="AD2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="34" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="O1" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="H2" s="3">
         <v>39770</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="40.5">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="H3" s="3">
         <v>40409</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>478</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="H4" s="3">
         <v>39849</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="7" t="s">
+      <c r="C5" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="H5" s="3">
         <v>41634</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="H6" s="3">
         <v>39868</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H7" s="3">
         <v>39329</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="H8" s="3">
         <v>40316</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="4" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="H9" s="3">
         <v>39032</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="4" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>512</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="7" t="s">
+      <c r="C11" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="H11" s="3">
         <v>40113</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="H12" s="3">
         <v>40101</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="4" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="H13" s="3">
         <v>41333</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="4" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>535</v>
-      </c>
       <c r="D14" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="H14" s="3">
         <v>41669</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="7" t="s">
+      <c r="C15" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>541</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H15" s="3">
         <v>42075</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="7" t="s">
+      <c r="C16" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H16" s="3">
         <v>39870</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="4" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6597,10 +6662,10 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6616,10 +6681,10 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="4" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6635,10 +6700,10 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="4" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6654,10 +6719,10 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="4" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6673,10 +6738,10 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="4" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6692,10 +6757,10 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="4" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6711,10 +6776,10 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="4" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6730,10 +6795,10 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="4" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6749,10 +6814,10 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="4" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6768,10 +6833,10 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="4" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6787,10 +6852,10 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="4" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="7"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6806,10 +6871,10 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="4" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6825,10 +6890,10 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="4" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6844,10 +6909,10 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="4" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -6863,10 +6928,10 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -6882,10 +6947,10 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="4" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -6901,10 +6966,10 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="4" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6920,10 +6985,10 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="4" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -6939,10 +7004,10 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="4" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -6958,10 +7023,10 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="4" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6977,10 +7042,10 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="4" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6996,10 +7061,10 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="4" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7015,10 +7080,10 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="4" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7034,10 +7099,10 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="4" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7053,10 +7118,10 @@
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7072,10 +7137,10 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7091,10 +7156,10 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7110,10 +7175,10 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="4" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7129,10 +7194,10 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7148,10 +7213,10 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7167,10 +7232,10 @@
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="4" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7186,10 +7251,10 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7205,10 +7270,10 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="4" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7224,10 +7289,10 @@
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7243,10 +7308,10 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="4" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7262,10 +7327,10 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="4" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7281,10 +7346,10 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="4" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7300,10 +7365,10 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7319,10 +7384,10 @@
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="4" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7338,10 +7403,10 @@
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="4" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7357,10 +7422,10 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -7376,10 +7441,10 @@
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" s="4" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -7395,10 +7460,10 @@
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" s="4" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -7414,10 +7479,10 @@
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" s="4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -7433,10 +7498,10 @@
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7452,10 +7517,10 @@
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="4" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -7471,10 +7536,10 @@
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" s="4" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7490,10 +7555,10 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="4" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7509,10 +7574,10 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -7528,10 +7593,10 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" s="4" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7547,10 +7612,10 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" s="4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7566,10 +7631,10 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="4" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7585,10 +7650,10 @@
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" s="4" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7604,10 +7669,10 @@
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" s="4" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7623,10 +7688,10 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7642,10 +7707,10 @@
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" s="4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7661,10 +7726,10 @@
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" s="4" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7680,10 +7745,10 @@
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" s="4" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7699,10 +7764,10 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="4" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7718,10 +7783,10 @@
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="4" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7737,10 +7802,10 @@
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="4" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -7756,10 +7821,10 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -7775,10 +7840,10 @@
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
       <c r="O79" s="4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -7794,10 +7859,10 @@
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" s="4" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -7813,10 +7878,10 @@
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
       <c r="O81" s="4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -7832,10 +7897,10 @@
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" s="4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -7851,10 +7916,10 @@
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
       <c r="O83" s="4" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -7870,10 +7935,10 @@
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
       <c r="O84" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -7889,10 +7954,10 @@
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
       <c r="O85" s="4" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -7908,10 +7973,10 @@
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
       <c r="O86" s="4" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -7927,10 +7992,10 @@
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" s="4" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -7946,10 +8011,10 @@
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
       <c r="O88" s="4" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -7965,10 +8030,10 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
       <c r="O89" s="4" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -7984,10 +8049,10 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
       <c r="O90" s="4" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -8003,10 +8068,10 @@
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
       <c r="O91" s="4" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -8022,10 +8087,10 @@
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" s="4" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -8041,10 +8106,10 @@
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" s="4" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -8060,10 +8125,10 @@
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
       <c r="O94" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -8079,10 +8144,10 @@
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
       <c r="O95" s="4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -8098,10 +8163,10 @@
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" s="4" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -8117,10 +8182,10 @@
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
       <c r="O97" s="4" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -8136,10 +8201,10 @@
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
       <c r="O98" s="4" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -8155,10 +8220,10 @@
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
       <c r="O99" s="4" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -8174,10 +8239,10 @@
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
       <c r="O100" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -8193,10 +8258,10 @@
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
       <c r="O101" s="4" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -8212,10 +8277,10 @@
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" s="4" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -8231,10 +8296,10 @@
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" s="4" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -8250,10 +8315,10 @@
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
       <c r="O104" s="4" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -8269,10 +8334,10 @@
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
       <c r="O105" s="4" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -8288,10 +8353,10 @@
       <c r="M106" s="2"/>
       <c r="N106" s="2"/>
       <c r="O106" s="4" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -8307,10 +8372,10 @@
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
       <c r="O107" s="4" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -8326,10 +8391,10 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="4" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -8345,10 +8410,10 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="4" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -8364,10 +8429,10 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="4" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -8383,10 +8448,10 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="4" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -8402,10 +8467,10 @@
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
       <c r="O112" s="4" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -8421,10 +8486,10 @@
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" s="4" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -8440,10 +8505,10 @@
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
       <c r="O114" s="4" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -8459,10 +8524,10 @@
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
       <c r="O115" s="4" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -8478,10 +8543,10 @@
       <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" s="4" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -8497,10 +8562,10 @@
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
       <c r="O117" s="4" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -8516,10 +8581,10 @@
       <c r="M118" s="2"/>
       <c r="N118" s="2"/>
       <c r="O118" s="4" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -8535,10 +8600,10 @@
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
       <c r="O119" s="4" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -8554,10 +8619,10 @@
       <c r="M120" s="2"/>
       <c r="N120" s="2"/>
       <c r="O120" s="4" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -8573,10 +8638,10 @@
       <c r="M121" s="2"/>
       <c r="N121" s="2"/>
       <c r="O121" s="4" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -8592,10 +8657,10 @@
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="4" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -8611,10 +8676,10 @@
       <c r="M123" s="2"/>
       <c r="N123" s="2"/>
       <c r="O123" s="4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -8630,10 +8695,10 @@
       <c r="M124" s="2"/>
       <c r="N124" s="2"/>
       <c r="O124" s="4" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -8649,10 +8714,10 @@
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
       <c r="O125" s="4" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -8668,10 +8733,10 @@
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
       <c r="O126" s="4" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -8687,10 +8752,10 @@
       <c r="M127" s="2"/>
       <c r="N127" s="2"/>
       <c r="O127" s="4" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -8706,10 +8771,10 @@
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
       <c r="O128" s="4" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -8725,10 +8790,10 @@
       <c r="M129" s="2"/>
       <c r="N129" s="2"/>
       <c r="O129" s="4" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -8744,10 +8809,10 @@
       <c r="M130" s="2"/>
       <c r="N130" s="2"/>
       <c r="O130" s="4" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -8763,10 +8828,10 @@
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
       <c r="O131" s="4" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8782,10 +8847,10 @@
       <c r="M132" s="2"/>
       <c r="N132" s="2"/>
       <c r="O132" s="4" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -8801,10 +8866,10 @@
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
       <c r="O133" s="4" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -8820,10 +8885,10 @@
       <c r="M134" s="2"/>
       <c r="N134" s="2"/>
       <c r="O134" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -8839,10 +8904,10 @@
       <c r="M135" s="2"/>
       <c r="N135" s="2"/>
       <c r="O135" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -8858,10 +8923,10 @@
       <c r="M136" s="2"/>
       <c r="N136" s="2"/>
       <c r="O136" s="4" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -8877,10 +8942,10 @@
       <c r="M137" s="2"/>
       <c r="N137" s="2"/>
       <c r="O137" s="4" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -8896,10 +8961,10 @@
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
       <c r="O138" s="4" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8915,10 +8980,10 @@
       <c r="M139" s="2"/>
       <c r="N139" s="2"/>
       <c r="O139" s="4" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8934,10 +8999,10 @@
       <c r="M140" s="2"/>
       <c r="N140" s="2"/>
       <c r="O140" s="4" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8953,10 +9018,10 @@
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="4" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8972,10 +9037,10 @@
       <c r="M142" s="2"/>
       <c r="N142" s="2"/>
       <c r="O142" s="4" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8991,10 +9056,10 @@
       <c r="M143" s="2"/>
       <c r="N143" s="2"/>
       <c r="O143" s="4" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -9010,10 +9075,10 @@
       <c r="M144" s="2"/>
       <c r="N144" s="2"/>
       <c r="O144" s="4" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -9029,10 +9094,10 @@
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="4" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -9048,10 +9113,10 @@
       <c r="M146" s="2"/>
       <c r="N146" s="2"/>
       <c r="O146" s="4" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -9067,10 +9132,10 @@
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="4" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -9086,10 +9151,10 @@
       <c r="M148" s="2"/>
       <c r="N148" s="2"/>
       <c r="O148" s="4" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -9105,10 +9170,10 @@
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
       <c r="O149" s="4" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -9124,10 +9189,10 @@
       <c r="M150" s="2"/>
       <c r="N150" s="2"/>
       <c r="O150" s="4" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -9143,10 +9208,10 @@
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
       <c r="O151" s="4" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -9162,10 +9227,10 @@
       <c r="M152" s="2"/>
       <c r="N152" s="2"/>
       <c r="O152" s="4" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -9181,10 +9246,10 @@
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
       <c r="O153" s="4" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -9200,10 +9265,10 @@
       <c r="M154" s="2"/>
       <c r="N154" s="2"/>
       <c r="O154" s="4" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -9219,10 +9284,10 @@
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="4" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -9238,10 +9303,10 @@
       <c r="M156" s="2"/>
       <c r="N156" s="2"/>
       <c r="O156" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -9257,10 +9322,10 @@
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="4" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9276,10 +9341,10 @@
       <c r="M158" s="2"/>
       <c r="N158" s="2"/>
       <c r="O158" s="4" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="159" spans="1:15">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9295,10 +9360,10 @@
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>
       <c r="O159" s="4" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9314,10 +9379,10 @@
       <c r="M160" s="2"/>
       <c r="N160" s="2"/>
       <c r="O160" s="4" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9333,10 +9398,10 @@
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
       <c r="O161" s="4" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9352,10 +9417,10 @@
       <c r="M162" s="2"/>
       <c r="N162" s="2"/>
       <c r="O162" s="4" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9371,10 +9436,10 @@
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
       <c r="O163" s="4" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9390,10 +9455,10 @@
       <c r="M164" s="2"/>
       <c r="N164" s="2"/>
       <c r="O164" s="4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9409,10 +9474,10 @@
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
       <c r="O165" s="4" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9428,10 +9493,10 @@
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
       <c r="O166" s="4" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9447,10 +9512,10 @@
       <c r="M167" s="2"/>
       <c r="N167" s="2"/>
       <c r="O167" s="4" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9466,10 +9531,10 @@
       <c r="M168" s="2"/>
       <c r="N168" s="2"/>
       <c r="O168" s="4" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9485,10 +9550,10 @@
       <c r="M169" s="2"/>
       <c r="N169" s="2"/>
       <c r="O169" s="4" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9504,46 +9569,46 @@
       <c r="M170" s="2"/>
       <c r="N170" s="2"/>
       <c r="O170" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A171" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
-      <c r="A171" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H171" s="3">
         <v>39769</v>
       </c>
       <c r="I171" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="K171" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="J171" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="K171" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
       <c r="N171" s="2"/>
       <c r="O171" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -9728,88 +9793,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
